--- a/WoniuBoss_project/python/WoniuBoss/testdata/woniuboss_test_API.xlsx
+++ b/WoniuBoss_project/python/WoniuBoss/testdata/woniuboss_test_API.xlsx
@@ -140,6 +140,171 @@
     <t>http://192.168.0.102:8080/WoniuBoss2.5/resource/modifyCusInfo</t>
   </si>
   <si>
+    <t>修改成功.</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.102:8080/WoniuBoss2.5/cons/addCus</t>
+  </si>
+  <si>
+    <t>新增成功.</t>
+  </si>
+  <si>
+    <t>http://192.168.0.102:8080/WoniuBoss2.5/resource/abandonResource</t>
+  </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[]=592787,WNCD000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃资源完成.</t>
+  </si>
+  <si>
+    <t>转交查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.102:8080/WoniuBoss2.5/transmit/queryResourcesByInfo</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+cusInfo=
+workId=全部
+region=成都
+source=全部
+status=全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":36,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":4,"pageSize":10,"list":[{"qq":"*****","education":"本科","last_status":"无意向","employee_name":"郑雪娇","source":"专属","major":"信息管理与信息系统","school":"四川农业大学","name":"*****","tel":"*****","customer_id":498476,"region":"成都","age":"1996/6","pool_type":"public"},{"qq":"*****","education":"本科","last_status":"已预约","employee_name":"郑雪娇","source":"专属","major":null,"school":null,"name":"*****","tel":"*****","customer_id":498481,"region":"成都","age":"1995/12","pool_type":"private"},{"qq":"*****","education":"本科","last_status":"已报名","employee_name":"郑雪娇","source":"专属","major":null,"school":null,"name":"*****","tel":"*****","customer_id":512869,"region":"成都","age":"1993/8","pool_type":"student"},{"qq":"*****","education":"本科","last_status":"新认领","employee_name":"郑雪娇","source":"专属","major":"国际经济与贸易","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548097,"region":"成都","age":"1995/8","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"自动化","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548103,"region":"成都","age":"1996/6","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"前程无忧","major":"电子信息工程 ","school":"黑龙江八一农垦大学","name":"*****","tel":"*****","customer_id":548313,"region":"成都","age":"22岁","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"四川大学锦江学院","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548793,"region":"成都","age":"21","pool_type":"public"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"建筑经济管理","school":"川北幼儿师范高等专科学校","name":"*****","tel":"*****","customer_id":549040,"region":"成都","age":"23","pool_type":"temp"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"软装饰艺术设计","school":"成都纺织高等专科学校","name":"*****","tel":"*****","customer_id":549047,"region":"成都","age":"25","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"已报名","employee_name":"郑雪娇","source":"网络","major":null,"school":null,"name":"*****","tel":"*****","customer_id":592790,"region":"成都","age":null,"pool_type":"private"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转交查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cusId=498481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"education":"本科","source":"专属","experience":null,"salary":null,"type":"下载","tracking_times":2,"allot_time":"2018-07-13 21:10","abandon_time":"","update_time":"2020-03-26 16:21","major":null,"school":null,"tel":"18190754895","transmit_time":"","pool_type":"private","email":null,"alter_time":"2020-03-26 16:27","qq":"0","mail_uid":"","work_id":"WNCD011","applposition":"web前端开发实习生","create_time":"2020-03-26 16:27","department_id":3,"workage":"应届毕业生","sex":"男","next_tracking_time":"2020-03-04","last_status":"已预约","receive_time":"","priority":"低","intent":null,"last_tracking_remark":"aaa","resume_content":"","eduexp":null,"name":"曹家伟","last_tracking":"2020-03-26 16:21","tel_source":"四川成都市","customer_id":498481,"region":"成都","age":"1995/12"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.102:8080/WoniuBoss2.5/transmit/updateTransmit</t>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[]=512869
+workId=WNCD011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.102:8080/WoniuBoss2.5/allot/queryResources</t>
+  </si>
+  <si>
+    <t>分配查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+source=专属
+info=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":10,"list":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按比例分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.102:8080/WoniuBoss2.5/allot/allotProportion</t>
+  </si>
+  <si>
+    <t>length=6
+work_id0=WNCD011
+proportion0=16%
+work_id1=WNCD023
+proportion1=16%
+work_id2=WNCD033
+proportion2=16%
+work_id3=WNCD050
+proportion3=16%
+work_id4=WNCD044
+proportion4=16%
+work_id5=WNCD064
+proportion5=16%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.102:8080/WoniuBoss2.5/public/queryCusByInfo</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+workId=全部
+lastStatus=全部
+source=专属
+cusInfo=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":3,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"work_id":null,"education":"本科","create_time":"2017-11-20","last_status":"新入库","employee_name":"郑雪娇","source":"专属","last_tracking_remark":null,"abandon_time":"2020-03-26","major":"四川大学锦江学院","school":"四川大学锦江学院","name":"*****","last_tracking":null,"tel":"5AD7871F51D4E8C2222B98020AFD02A7","customer_id":548793,"region":"成都","age":"21"},{"work_id":null,"education":"大专","create_time":"2018-01-19","last_status":"条件不符","employee_name":null,"source":"专属","last_tracking_remark":"sadf","abandon_time":"2020-03-15","major":"产品造型设计","school":"四川文化传媒职业学院","name":"*****","last_tracking":"2020-03-15","tel":"7E4ADC0FBC602E37F55089F12FAE56C3","customer_id":555682,"region":"成都","age":"21"},{"work_id":null,"education":"本科","create_time":"2017-05-17","last_status":"无意向","employee_name":"郑雪娇","source":"专属","last_tracking_remark":"找其他方面的工作，不考虑培训","abandon_time":"2018-07-13","major":"信息管理与信息系统","school":"四川农业大学","name":"*****","last_tracking":"2018-07-13","tel":"9D6657CBE79A25E60E4E0650C29F1830","customer_id":498476,"region":"成都","age":"1996/6"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共认领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.102:8080/WoniuBoss2.5/public/ownResource</t>
+  </si>
+  <si>
+    <t>arr[]=498476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cus.tel=13344022200
+cus.name=王名
+cus.sex=男
+cus.last_status=已报名
+cus.email=0
+cus.qq=0
+cus.school=
+cus.education=本科
+cus.major=
+cus.intent=
+cus.workage=应届毕业生
+cus.salary=
+cus.source=专属
+cus.applposition=
+cus.age=
+cus.eduexp=
+cus.experience=
+cus.last_tracking_remark=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cus.customer_id=498481
 cus.name=曹家伟
 cus.sex=男cus.last_status=已预约
@@ -158,171 +323,6 @@
 cus.eduexp=
 cus.experience=
 cus.last_tracking_remark=aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改成功.</t>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/cons/addCus</t>
-  </si>
-  <si>
-    <t>cus.tel=13344022200
-cus.name=王明
-cus.sex=男
-cus.last_status=已报名
-cus.email=0
-cus.qq=0
-cus.school=
-cus.education=本科
-cus.major=
-cus.intent=
-cus.workage=应届毕业生
-cus.salary=
-cus.source=专属
-cus.applposition=
-cus.age=
-cus.eduexp=
-cus.experience=
-cus.last_tracking_remark=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增成功.</t>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/resource/abandonResource</t>
-  </si>
-  <si>
-    <t>废弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arr[]=592787,WNCD000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃资源完成.</t>
-  </si>
-  <si>
-    <t>转交查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/transmit/queryResourcesByInfo</t>
-  </si>
-  <si>
-    <t>pageSize=10
-pageIndex=1
-cusInfo=
-workId=全部
-region=成都
-source=全部
-status=全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"totalRow":36,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":4,"pageSize":10,"list":[{"qq":"*****","education":"本科","last_status":"无意向","employee_name":"郑雪娇","source":"专属","major":"信息管理与信息系统","school":"四川农业大学","name":"*****","tel":"*****","customer_id":498476,"region":"成都","age":"1996/6","pool_type":"public"},{"qq":"*****","education":"本科","last_status":"已预约","employee_name":"郑雪娇","source":"专属","major":null,"school":null,"name":"*****","tel":"*****","customer_id":498481,"region":"成都","age":"1995/12","pool_type":"private"},{"qq":"*****","education":"本科","last_status":"已报名","employee_name":"郑雪娇","source":"专属","major":null,"school":null,"name":"*****","tel":"*****","customer_id":512869,"region":"成都","age":"1993/8","pool_type":"student"},{"qq":"*****","education":"本科","last_status":"新认领","employee_name":"郑雪娇","source":"专属","major":"国际经济与贸易","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548097,"region":"成都","age":"1995/8","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"自动化","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548103,"region":"成都","age":"1996/6","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"前程无忧","major":"电子信息工程 ","school":"黑龙江八一农垦大学","name":"*****","tel":"*****","customer_id":548313,"region":"成都","age":"22岁","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"四川大学锦江学院","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548793,"region":"成都","age":"21","pool_type":"public"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"建筑经济管理","school":"川北幼儿师范高等专科学校","name":"*****","tel":"*****","customer_id":549040,"region":"成都","age":"23","pool_type":"temp"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"软装饰艺术设计","school":"成都纺织高等专科学校","name":"*****","tel":"*****","customer_id":549047,"region":"成都","age":"25","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"已报名","employee_name":"郑雪娇","source":"网络","major":null,"school":null,"name":"*****","tel":"*****","customer_id":592790,"region":"成都","age":null,"pool_type":"private"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转交查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cusId=498481</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"education":"本科","source":"专属","experience":null,"salary":null,"type":"下载","tracking_times":2,"allot_time":"2018-07-13 21:10","abandon_time":"","update_time":"2020-03-26 16:21","major":null,"school":null,"tel":"18190754895","transmit_time":"","pool_type":"private","email":null,"alter_time":"2020-03-26 16:27","qq":"0","mail_uid":"","work_id":"WNCD011","applposition":"web前端开发实习生","create_time":"2020-03-26 16:27","department_id":3,"workage":"应届毕业生","sex":"男","next_tracking_time":"2020-03-04","last_status":"已预约","receive_time":"","priority":"低","intent":null,"last_tracking_remark":"aaa","resume_content":"","eduexp":null,"name":"曹家伟","last_tracking":"2020-03-26 16:21","tel_source":"四川成都市","customer_id":498481,"region":"成都","age":"1995/12"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/transmit/updateTransmit</t>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arr[]=512869
-workId=WNCD011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/allot/queryResources</t>
-  </si>
-  <si>
-    <t>分配查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageSize=10
-pageIndex=1
-source=专属
-info=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":10,"list":[]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按比例分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/allot/allotProportion</t>
-  </si>
-  <si>
-    <t>length=6
-work_id0=WNCD011
-proportion0=16%
-work_id1=WNCD023
-proportion1=16%
-work_id2=WNCD033
-proportion2=16%
-work_id3=WNCD050
-proportion3=16%
-work_id4=WNCD044
-proportion4=16%
-work_id5=WNCD064
-proportion5=16%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/public/queryCusByInfo</t>
-  </si>
-  <si>
-    <t>pageSize=10
-pageIndex=1
-workId=全部
-lastStatus=全部
-source=专属
-cusInfo=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"totalRow":3,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"work_id":null,"education":"本科","create_time":"2017-11-20","last_status":"新入库","employee_name":"郑雪娇","source":"专属","last_tracking_remark":null,"abandon_time":"2020-03-26","major":"四川大学锦江学院","school":"四川大学锦江学院","name":"*****","last_tracking":null,"tel":"5AD7871F51D4E8C2222B98020AFD02A7","customer_id":548793,"region":"成都","age":"21"},{"work_id":null,"education":"大专","create_time":"2018-01-19","last_status":"条件不符","employee_name":null,"source":"专属","last_tracking_remark":"sadf","abandon_time":"2020-03-15","major":"产品造型设计","school":"四川文化传媒职业学院","name":"*****","last_tracking":"2020-03-15","tel":"7E4ADC0FBC602E37F55089F12FAE56C3","customer_id":555682,"region":"成都","age":"21"},{"work_id":null,"education":"本科","create_time":"2017-05-17","last_status":"无意向","employee_name":"郑雪娇","source":"专属","last_tracking_remark":"找其他方面的工作，不考虑培训","abandon_time":"2018-07-13","major":"信息管理与信息系统","school":"四川农业大学","name":"*****","last_tracking":"2018-07-13","tel":"9D6657CBE79A25E60E4E0650C29F1830","customer_id":498476,"region":"成都","age":"1996/6"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共认领</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/public/ownResource</t>
-  </si>
-  <si>
-    <t>arr[]=498476</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,9 +742,6 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
-        <v>200</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -757,10 +754,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="285" x14ac:dyDescent="0.2">
@@ -768,16 +765,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -785,16 +782,16 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
@@ -802,16 +799,16 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="384.75" x14ac:dyDescent="0.2">
@@ -819,16 +816,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -836,16 +833,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -853,16 +847,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
@@ -870,16 +864,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="1">
-        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
@@ -887,16 +878,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -904,16 +895,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/WoniuBoss_project/python/WoniuBoss/testdata/woniuboss_test_API.xlsx
+++ b/WoniuBoss_project/python/WoniuBoss/testdata/woniuboss_test_API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
   <si>
     <t>用例编号</t>
   </si>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>响应正文</t>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/resource/queryCusByCusInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pageSize=10
@@ -61,9 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/resource/showResumeById</t>
-  </si>
-  <si>
     <t>查询简历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,23 +64,12 @@
     <t>cusId=498481</t>
   </si>
   <si>
-    <t>{"education":"本科","source":"专属","experience":null,"salary":"不显示职位月薪范围","type":"下载","tracking_times":1,"allot_time":"2018-07-13 21:10","abandon_time":"","update_time":"2018-07-13 21:12","major":"电子信息工程","school":"四川师范大学","tel":"18190754895","transmit_time":"","pool_type":"private","email":"603306341@qq.com","alter_time":"","qq":"0","mail_uid":"","work_id":"WNCD011","applposition":"web前端开发实习生","create_time":"2017-05-17 17:43:22","department_id":3,"workage":"0","sex":"男","next_tracking_time":"2018-07-14","last_status":"可跟进","receive_time":"","priority":"低","intent":"web前端开发 成都","last_tracking_remark":"正在考虑转行，明天可能要来看看学校情况","resume_content":"","eduexp":null,"name":"曹家伟","last_tracking":"2018-07-13 21:12","tel_source":"四川成都市","customer_id":498481,"region":"成都","age":"1995/12"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"totalRow":61,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":7,"pageSize":10,"list":[{"qq":"821708617","work_id":"0","applposition":"Java开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"冯佳乐","last_tracking":null,"tel_source":"陕西咸阳市","tel":"15596455987","customer_id":592786,"region":"西安","age":"1996年6月"},{"qq":"821708617","work_id":"WNCD023","applposition":"视频审核实习生","next_tracking_time":"1899-12-30","last_status":"新入库","employee_name":"李姣","source":"专属","priority":"低","tracking_times":1,"last_tracking_remark":"asd","name":"陈晓宇","last_tracking":"2020-03-15 ","tel_source":"成都","tel":"13036671290","customer_id":561074,"region":"成都","age":"1995-09"},{"qq":"0","work_id":"0","applposition":"软件测试工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"和平","last_tracking":null,"tel_source":"陕西西安市","tel":"15934836393","customer_id":590397,"region":"西安","age":"28岁"},{"qq":"0","work_id":"0","applposition":"Java开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"张旭杰","last_tracking":null,"tel_source":"陕西西安市","tel":"13636709376","customer_id":590417,"region":"西安","age":"29岁"},{"qq":"0","work_id":"0","applposition":"大数据开发工程师/程序员","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"孙小涛","last_tracking":null,"tel_source":"河南鹤壁市","tel":"15239233375","customer_id":590353,"region":"西安","age":"1990年1月"},{"qq":"0","work_id":"0","applposition":"Java开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"朱小","last_tracking":null,"tel_source":"北京","tel":"15120075940","customer_id":590224,"region":"西安","age":"1990年7月"},{"qq":"0","work_id":"0","applposition":"Java开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"陈盼盼","last_tracking":null,"tel_source":"陕西西安市","tel":"15289488903","customer_id":590199,"region":"西安","age":"1990年9月"},{"qq":"0","work_id":"0","applposition":"初级会计","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"万良山","last_tracking":null,"tel_source":"重庆","tel":"15730240538","customer_id":588515,"region":"重庆","age":""},{"qq":"0","work_id":"0","applposition":"通信工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"兰毅","last_tracking":null,"tel_source":"重庆","tel":"18323587999","customer_id":588522,"region":"重庆","age":""},{"qq":"0","work_id":"0","applposition":"初级会计","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"冯诗诗","last_tracking":null,"tel_source":"辽宁沈阳市","tel":"15840394720","customer_id":588524,"region":"重庆","age":""}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QUERY_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>跟踪资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/resource/saveTrackingRecord</t>
   </si>
   <si>
     <t>fee=18800元&amp;remark=aaa
@@ -98,48 +80,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QUERY_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QUERY_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QUERY_005</t>
-  </si>
-  <si>
-    <t>QUERY_006</t>
-  </si>
-  <si>
-    <t>QUERY_007</t>
-  </si>
-  <si>
-    <t>QUERY_008</t>
-  </si>
-  <si>
-    <t>QUERY_009</t>
-  </si>
-  <si>
-    <t>QUERY_010</t>
-  </si>
-  <si>
-    <t>QUERY_011</t>
-  </si>
-  <si>
-    <t>QUERY_012</t>
-  </si>
-  <si>
-    <t>QUERY_013</t>
-  </si>
-  <si>
     <t>修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/resource/modifyCusInfo</t>
-  </si>
-  <si>
     <t>修改成功.</t>
   </si>
   <si>
@@ -147,15 +95,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/cons/addCus</t>
-  </si>
-  <si>
     <t>新增成功.</t>
   </si>
   <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/resource/abandonResource</t>
-  </si>
-  <si>
     <t>废弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,14 +106,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>废弃资源完成.</t>
-  </si>
-  <si>
     <t>转交查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/transmit/queryResourcesByInfo</t>
   </si>
   <si>
     <t>pageSize=10
@@ -184,23 +120,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"totalRow":36,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":4,"pageSize":10,"list":[{"qq":"*****","education":"本科","last_status":"无意向","employee_name":"郑雪娇","source":"专属","major":"信息管理与信息系统","school":"四川农业大学","name":"*****","tel":"*****","customer_id":498476,"region":"成都","age":"1996/6","pool_type":"public"},{"qq":"*****","education":"本科","last_status":"已预约","employee_name":"郑雪娇","source":"专属","major":null,"school":null,"name":"*****","tel":"*****","customer_id":498481,"region":"成都","age":"1995/12","pool_type":"private"},{"qq":"*****","education":"本科","last_status":"已报名","employee_name":"郑雪娇","source":"专属","major":null,"school":null,"name":"*****","tel":"*****","customer_id":512869,"region":"成都","age":"1993/8","pool_type":"student"},{"qq":"*****","education":"本科","last_status":"新认领","employee_name":"郑雪娇","source":"专属","major":"国际经济与贸易","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548097,"region":"成都","age":"1995/8","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"自动化","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548103,"region":"成都","age":"1996/6","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"前程无忧","major":"电子信息工程 ","school":"黑龙江八一农垦大学","name":"*****","tel":"*****","customer_id":548313,"region":"成都","age":"22岁","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"四川大学锦江学院","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548793,"region":"成都","age":"21","pool_type":"public"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"建筑经济管理","school":"川北幼儿师范高等专科学校","name":"*****","tel":"*****","customer_id":549040,"region":"成都","age":"23","pool_type":"temp"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"软装饰艺术设计","school":"成都纺织高等专科学校","name":"*****","tel":"*****","customer_id":549047,"region":"成都","age":"25","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"已报名","employee_name":"郑雪娇","source":"网络","major":null,"school":null,"name":"*****","tel":"*****","customer_id":592790,"region":"成都","age":null,"pool_type":"private"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转交查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cusId=498481</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"education":"本科","source":"专属","experience":null,"salary":null,"type":"下载","tracking_times":2,"allot_time":"2018-07-13 21:10","abandon_time":"","update_time":"2020-03-26 16:21","major":null,"school":null,"tel":"18190754895","transmit_time":"","pool_type":"private","email":null,"alter_time":"2020-03-26 16:27","qq":"0","mail_uid":"","work_id":"WNCD011","applposition":"web前端开发实习生","create_time":"2020-03-26 16:27","department_id":3,"workage":"应届毕业生","sex":"男","next_tracking_time":"2020-03-04","last_status":"已预约","receive_time":"","priority":"低","intent":null,"last_tracking_remark":"aaa","resume_content":"","eduexp":null,"name":"曹家伟","last_tracking":"2020-03-26 16:21","tel_source":"四川成都市","customer_id":498481,"region":"成都","age":"1995/12"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/transmit/updateTransmit</t>
   </si>
   <si>
     <t>提交</t>
@@ -210,9 +135,6 @@
     <t>arr[]=512869
 workId=WNCD011</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/allot/queryResources</t>
   </si>
   <si>
     <t>分配查询</t>
@@ -226,38 +148,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":10,"list":[]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按比例分配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/allot/allotProportion</t>
-  </si>
-  <si>
-    <t>length=6
-work_id0=WNCD011
-proportion0=16%
-work_id1=WNCD023
-proportion1=16%
-work_id2=WNCD033
-proportion2=16%
-work_id3=WNCD050
-proportion3=16%
-work_id4=WNCD044
-proportion4=16%
-work_id5=WNCD064
-proportion5=16%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公共查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/public/queryCusByInfo</t>
   </si>
   <si>
     <t>pageSize=10
@@ -269,24 +165,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"totalRow":3,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"work_id":null,"education":"本科","create_time":"2017-11-20","last_status":"新入库","employee_name":"郑雪娇","source":"专属","last_tracking_remark":null,"abandon_time":"2020-03-26","major":"四川大学锦江学院","school":"四川大学锦江学院","name":"*****","last_tracking":null,"tel":"5AD7871F51D4E8C2222B98020AFD02A7","customer_id":548793,"region":"成都","age":"21"},{"work_id":null,"education":"大专","create_time":"2018-01-19","last_status":"条件不符","employee_name":null,"source":"专属","last_tracking_remark":"sadf","abandon_time":"2020-03-15","major":"产品造型设计","school":"四川文化传媒职业学院","name":"*****","last_tracking":"2020-03-15","tel":"7E4ADC0FBC602E37F55089F12FAE56C3","customer_id":555682,"region":"成都","age":"21"},{"work_id":null,"education":"本科","create_time":"2017-05-17","last_status":"无意向","employee_name":"郑雪娇","source":"专属","last_tracking_remark":"找其他方面的工作，不考虑培训","abandon_time":"2018-07-13","major":"信息管理与信息系统","school":"四川农业大学","name":"*****","last_tracking":"2018-07-13","tel":"9D6657CBE79A25E60E4E0650C29F1830","customer_id":498476,"region":"成都","age":"1996/6"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公共认领</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.0.102:8080/WoniuBoss2.5/public/ownResource</t>
-  </si>
-  <si>
     <t>arr[]=498476</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cus.tel=13344022200
-cus.name=王名
-cus.sex=男
+    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":10,"list":[]}</t>
+  </si>
+  <si>
+    <t>length=5
+work_id0=WNCD053
+proportion0=20%
+work_id1=WNCD058
+proportion1=20%
+work_id2=WNCD059
+proportion2=20%
+work_id3=WNCD056
+proportion3=20%
+work_id4=WNCD055
+proportion4=20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":63,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":7,"pageSize":10,"list":[{"qq":"*****","work_id":"0","applposition":"Java开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"陕西咸阳市","tel":"*****","customer_id":592786,"region":"西安","age":"1996年6月"},{"qq":"*****","work_id":"0","applposition":"软件测试工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"陕西西安市","tel":"*****","customer_id":590397,"region":"西安","age":"28岁"},{"qq":"*****","work_id":"0","applposition":"Java开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"陕西西安市","tel":"*****","customer_id":590417,"region":"西安","age":"29岁"},{"qq":"*****","work_id":"0","applposition":"大数据开发工程师/程序员","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"河南鹤壁市","tel":"*****","customer_id":590353,"region":"西安","age":"1990年1月"},{"qq":"*****","work_id":"0","applposition":"Java开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"北京","tel":"*****","customer_id":590224,"region":"西安","age":"1990年7月"},{"qq":"*****","work_id":"0","applposition":"Java开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"陕西西安市","tel":"*****","customer_id":590199,"region":"西安","age":"1990年9月"},{"qq":"*****","work_id":"0","applposition":"初级会计","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"重庆","tel":"*****","customer_id":588515,"region":"重庆","age":""},{"qq":"*****","work_id":"0","applposition":"通信工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"重庆","tel":"*****","customer_id":588522,"region":"重庆","age":""},{"qq":"*****","work_id":"0","applposition":"初级会计","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"辽宁沈阳市","tel":"*****","customer_id":588524,"region":"重庆","age":""},{"qq":"*****","work_id":"0","applposition":"数据专员-统计员","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"*****","last_tracking":null,"tel_source":"重庆","tel":"*****","customer_id":588526,"region":"重庆","age":""}]}</t>
+  </si>
+  <si>
+    <t>{"totalRow":35,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":4,"pageSize":10,"list":[{"qq":"*****","education":"本科","last_status":"已预约","employee_name":"郑雪娇","source":"专属","major":null,"school":null,"name":"*****","tel":"*****","customer_id":498481,"region":"成都","age":"1995/12","pool_type":"private"},{"qq":"*****","education":"本科","last_status":"已报名","employee_name":"郑雪娇","source":"专属","major":"软件工程","school":"西安石油大学","name":"*****","tel":"*****","customer_id":512869,"region":"成都","age":"1993/8","pool_type":"student"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"","school":"四川农业大学","name":"*****","tel":"*****","customer_id":548702,"region":"成都","age":"21","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"四川大学锦江学院","school":"四川大学锦江学院","name":"*****","tel":"*****","customer_id":548793,"region":"成都","age":"21","pool_type":"temp"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"郑雪娇","source":"专属","major":"旅游管理","school":"湖南环境生物职业技术学院","name":"*****","tel":"*****","customer_id":549048,"region":"成都","age":"27","pool_type":"temp"},{"qq":"*****","education":"本科","last_status":"新入库","employee_name":"李姣","source":"专属","major":"计算机软件","school":"电子科技大学","name":"*****","tel":"*****","customer_id":544025,"region":"成都","age":"21","pool_type":"temp"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"李姣","source":"专属","major":"计算机应用技术","school":"成都职业技术学院","name":"*****","tel":"*****","customer_id":544215,"region":"成都","age":"1996/4","pool_type":"temp"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"李姣","source":"专属","major":"机电一体化","school":"成都纺织高等专科学校","name":"*****","tel":"*****","customer_id":548911,"region":"成都","age":"23","pool_type":"temp"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"李姣","source":"专属","major":"软装饰艺术设计","school":"成都纺织高等专科学校","name":"*****","tel":"*****","customer_id":549047,"region":"成都","age":"25","pool_type":"temp"},{"qq":"*****","education":"大专","last_status":"新入库","employee_name":"李姣","source":"专属","major":"产品造型设计","school":"四川文化传媒职业学院","name":"*****","tel":"*****","customer_id":555682,"region":"成都","age":"21","pool_type":"temp"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"education":"本科","source":"专属","experience":null,"salary":null,"type":"下载","tracking_times":7,"allot_time":"2018-07-13 21:10","abandon_time":"","update_time":"2020-04-03 18:49","major":null,"school":null,"tel":"18190754895","transmit_time":"","pool_type":"private","email":null,"alter_time":"2020-04-03 18:49","qq":"0","mail_uid":"","work_id":"WNCD011","applposition":"web前端开发实习生","create_time":"2020-04-03 18:49","department_id":3,"workage":"应届毕业生","sex":"女cus.last_status","next_tracking_time":"2020-03-04","last_status":"已预约","receive_time":"","priority":"低","intent":null,"last_tracking_remark":null,"resume_content":"","eduexp":null,"name":"曹家伟","last_tracking":"2020-04-03 18:49","tel_source":"四川成都市","customer_id":498481,"region":"成都","age":"1995/12"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cus.tel=13572210015
+cus.name=王明
+cus.sex=女
 cus.last_status=已报名
 cus.email=0
 cus.qq=0
@@ -302,6 +219,90 @@
 cus.eduexp=
 cus.experience=
 cus.last_tracking_remark=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/resource/queryCusByCusInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/resource/showResumeById</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/resource/saveTrackingRecord</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/resource/modifyCusInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/cons/addCus</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/resource/abandonResource</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/transmit/queryResourcesByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/transmit/updateTransmit</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/allot/queryResources</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/allot/allotProportion</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/public/queryCusByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.0.101:8080/WoniuBoss2.5/public/ownResource</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=2
+status=all
+cusInfo=
+lastStatus=
+empName=
+source=
+s_time=
+e_time=
+poolType=public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+status=all
+cusInfo=
+lastStatus=
+empName=
+source=
+s_time=
+e_time=
+poolType=student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":1,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"qq":"*****","work_id":"WNCD011","applposition":null,"next_tracking_time":"2018-07-13","last_status":"已报名","employee_name":"郑雪娇","source":"专属","priority":"低","tracking_times":0,"last_tracking_remark":"已经报名，交了800定金，也领了电脑和学习资料","name":"*****","last_tracking":"2018-07-13 ","tel_source":"陕西西安市","tel":"*****","customer_id":512869,"region":"成都","age":"1993/8"}]}</t>
+  </si>
+  <si>
+    <t>cusId=513698</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cusId=498476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"education":"本科","source":"专属","experience":null,"salary":"2001-4000元/月","type":"下载","tracking_times":0,"allot_time":"2018-07-13 21:10","abandon_time":"2018-07-13 21:11","update_time":"2020-04-03 18:59","major":"信息管理与信息系统","school":"四川农业大学","tel":"18227594161","transmit_time":"","pool_type":"temp","email":"543343913@qq.com","alter_time":"","qq":"0","mail_uid":"","work_id":"WNCD000","applposition":"ERP实施/实习生（java）","create_time":"2017-05-17 17:43:22","department_id":8,"workage":"0","sex":"男","next_tracking_time":"2018-07-13","last_status":"新认领","receive_time":"2020-04-03 18:59","priority":"低","intent":"软件/互联网开发/系统集成 成都","last_tracking_remark":"找其他方面的工作，不考虑培训","resume_content":"","eduexp":null,"name":"谭景焘","last_tracking":"2018-07-13 21:11","tel_source":"四川雅安市","customer_id":498476,"region":"成都","age":"1996/6"}</t>
+  </si>
+  <si>
+    <t>fee=18800元&amp;remark=aaa
+status=
+id=498481
+nextTime=2020-03-04
+priority=低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -323,6 +324,286 @@
 cus.eduexp=
 cus.experience=
 cus.last_tracking_remark=aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cus.customer_id=498481
+cus.name=曹家伟
+cus.sex=
+cus.last_status=已预约
+cus.tel=18190754895
+cus.email=
+cus.qq=0
+cus.school=
+cus.education=本科
+cus.major=
+cus.intent=
+cus.workage=应届毕业生
+cus.salary=
+cus.age=1995/12
+cus.source=专属
+cus.applposition=web前端开发实习生
+cus.eduexp=
+cus.experience=
+cus.last_tracking_remark=aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cus.customer_id=498481
+cus.name=曹伟
+cus.sex=女cus.last_status=已预约
+cus.tel=18190754895
+cus.email=
+cus.qq=0
+cus.school=
+cus.education=本科
+cus.major=
+cus.intent=
+cus.workage=应届毕业生
+cus.salary=
+cus.age=1995/12
+cus.source=专属
+cus.applposition=web前端开发实习生
+cus.eduexp=
+cus.experience=
+cus.last_tracking_remark=aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cus.tel=13572210015
+cus.name=
+cus.sex=女
+cus.last_status=已报名
+cus.email=0
+cus.qq=0
+cus.school=
+cus.education=本科
+cus.major=
+cus.intent=
+cus.workage=应届毕业生
+cus.salary=
+cus.source=专属
+cus.applposition=
+cus.age=
+cus.eduexp=
+cus.experience=
+cus.last_tracking_remark=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失败.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[]=,WNCD000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+cusInfo=
+workId=全部
+region=全部
+source=全部
+status=已报名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":6,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"qq":null,"education":"本科","last_status":"已报名","employee_name":"郑雪娇","source":"专属","major":"软件工程","school":"西安石油大学","name":"马阳","tel":"18681873872","customer_id":512869,"region":"成都","age":"1993/8","pool_type":"student"},{"qq":null,"education":"本科","last_status":"已报名","employee_name":"测试账号","source":"专属","major":null,"school":null,"name":"王和","tel":"13344022200","customer_id":592787,"region":"成都","age":null,"pool_type":"private"},{"qq":null,"education":"本科","last_status":"已报名","employee_name":"测试账号","source":"专属","major":null,"school":null,"name":"王明","tel":"13572210011","customer_id":592788,"region":"成都","age":null,"pool_type":"private"},{"qq":null,"education":"本科","last_status":"已报名","employee_name":"测试账号","source":"专属","major":null,"school":null,"name":"王明","tel":"13572210012","customer_id":592789,"region":"成都","age":null,"pool_type":"private"},{"qq":null,"education":"本科","last_status":"已报名","employee_name":"测试账号","source":"专属","major":null,"school":null,"name":"王明","tel":"13572210013","customer_id":592790,"region":"成都","age":null,"pool_type":"private"},{"qq":null,"education":"本科","last_status":"已报名","employee_name":"测试账号","source":"专属","major":null,"school":null,"name":"王明","tel":"13572210015","customer_id":592791,"region":"成都","age":null,"pool_type":"private"}]}</t>
+  </si>
+  <si>
+    <t>cusId=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[]=512869
+workId=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+source=
+info=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>successful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length=5
+work_id0=WNCD053
+proportion0=20%
+work_id1=WNCD058
+proportion1=20%
+work_id2=WNCD059
+proportion2=10%
+work_id3=WNCD056
+proportion3=20%
+work_id4=WNCD055
+proportion4=20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+workId=全部
+lastStatus=全部
+source=全部
+cusInfo=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[]=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>successful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":10,"list":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":0,"pageNumber":2,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":10,"list":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"education":"大专","source":"专属","experience":null,"salary":"3000-5000","type":"下载","tracking_times":0,"allot_time":"2018-07-13 21:14","abandon_time":"2018-01-19 17:12","update_time":"2018-07-13 21:14","major":"计算机科学与技术","school":"成都东软学院","tel":"13778228826","transmit_time":"","pool_type":"temp","email":"63170454@qq.com","alter_time":"","qq":"0","mail_uid":"","work_id":"WNCD064","applposition":"求职","create_time":"2017-05-17 17:43:22","department_id":3,"workage":"应届生","sex":"男","next_tracking_time":"","last_status":"新入库","receive_time":"","priority":"","intent":null,"last_tracking_remark":null,"resume_content":"","eduexp":null,"name":"廖凯","last_tracking":null,"tel_source":"四川德阳市","customer_id":513698,"region":"成都","age":"24"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY_029</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,12 +627,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -366,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,6 +669,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,211 +991,489 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="228" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="399" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="399" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="285" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="285" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="285" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="399" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="E32" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>62</v>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
